--- a/Saved_file/EM001/2026_06/sap_data.xlsx
+++ b/Saved_file/EM001/2026_06/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST1376</t>
+          <t>CUST1703</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55206050</v>
+        <v>46520331</v>
       </c>
       <c r="E2" t="n">
-        <v>13958234</v>
+        <v>15765138</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST7532</t>
+          <t>CUST3202</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57862982</v>
+        <v>55175651</v>
       </c>
       <c r="E3" t="n">
-        <v>19424571</v>
+        <v>16035120</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST9836</t>
+          <t>CUST6798</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42603003</v>
+        <v>42112397</v>
       </c>
       <c r="E4" t="n">
-        <v>11059581</v>
+        <v>12284157</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST6020</t>
+          <t>CUST9338</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42156477</v>
+        <v>57634292</v>
       </c>
       <c r="E5" t="n">
-        <v>14625391</v>
+        <v>17012369</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST2220</t>
+          <t>CUST7311</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48590486</v>
+        <v>59474482</v>
       </c>
       <c r="E6" t="n">
-        <v>15587742</v>
+        <v>18607095</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST9999</t>
+          <t>CUST4839</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52135291</v>
+        <v>45286729</v>
       </c>
       <c r="E7" t="n">
-        <v>13155489</v>
+        <v>11359233</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST9990</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32992305</v>
+        <v>43467796</v>
       </c>
       <c r="E8" t="n">
-        <v>10952966</v>
+        <v>12089745</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST2074</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49436511</v>
+        <v>35587265</v>
       </c>
       <c r="E9" t="n">
-        <v>12399155</v>
+        <v>11841527</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST7084</t>
+          <t>CUST6513</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34938300</v>
+        <v>57886012</v>
       </c>
       <c r="E10" t="n">
-        <v>10826685</v>
+        <v>19559564</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST7722</t>
+          <t>CUST3315</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49309311</v>
+        <v>51700304</v>
       </c>
       <c r="E11" t="n">
-        <v>15864182</v>
+        <v>15641228</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-06-29</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST7722</t>
+          <t>CUST7726</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43948113</v>
+        <v>31064845</v>
       </c>
       <c r="E12" t="n">
-        <v>14833471</v>
+        <v>8659119</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST7722</t>
+          <t>CUST8812</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56778919</v>
+        <v>34956822</v>
       </c>
       <c r="E13" t="n">
-        <v>14626030</v>
+        <v>9944842</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST4473</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30395047</v>
+        <v>36763663</v>
       </c>
       <c r="E14" t="n">
-        <v>8218381</v>
+        <v>12864489</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST7418</t>
+          <t>CUST1703</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52986374</v>
+        <v>55018862</v>
       </c>
       <c r="E15" t="n">
-        <v>16059097</v>
+        <v>15006076</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST7192</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53497223</v>
+        <v>47582761</v>
       </c>
       <c r="E16" t="n">
-        <v>13915825</v>
+        <v>16340760</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST1484</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30363278</v>
+        <v>51067103</v>
       </c>
       <c r="E17" t="n">
-        <v>7681067</v>
+        <v>13319267</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST7552</t>
+          <t>CUST9853</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47517481</v>
+        <v>38032247</v>
       </c>
       <c r="E18" t="n">
-        <v>13174617</v>
+        <v>10830412</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST6922</t>
+          <t>CUST8799</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39181238</v>
+        <v>42208245</v>
       </c>
       <c r="E19" t="n">
-        <v>13452010</v>
+        <v>11605825</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST1376</t>
+          <t>CUST1889</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32944518</v>
+        <v>52202202</v>
       </c>
       <c r="E20" t="n">
-        <v>9918463</v>
+        <v>15546729</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST7418</t>
+          <t>CUST6397</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43537624</v>
+        <v>54739208</v>
       </c>
       <c r="E21" t="n">
-        <v>12789817</v>
+        <v>13962787</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST7833</t>
+          <t>CUST5033</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41851607</v>
+        <v>59680929</v>
       </c>
       <c r="E22" t="n">
-        <v>12808573</v>
+        <v>16537658</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-06-12</t>
+          <t>2026-06-29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST1057</t>
+          <t>CUST2589</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57627947</v>
+        <v>56400751</v>
       </c>
       <c r="E23" t="n">
-        <v>18590426</v>
+        <v>18936775</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST1465</t>
+          <t>CUST3315</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55773428</v>
+        <v>50808399</v>
       </c>
       <c r="E24" t="n">
-        <v>16375886</v>
+        <v>14857388</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST1376</t>
+          <t>CUST5315</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51385243</v>
+        <v>44315416</v>
       </c>
       <c r="E25" t="n">
-        <v>15912994</v>
+        <v>11229279</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-06-29</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST3537</t>
+          <t>CUST1484</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52924776</v>
+        <v>55354432</v>
       </c>
       <c r="E26" t="n">
-        <v>17699470</v>
+        <v>14603178</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST1057</t>
+          <t>CUST1703</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32536713</v>
+        <v>53610211</v>
       </c>
       <c r="E27" t="n">
-        <v>11297934</v>
+        <v>17226264</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST6377</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41779986</v>
+        <v>39897818</v>
       </c>
       <c r="E28" t="n">
-        <v>13336240</v>
+        <v>13817886</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST7722</t>
+          <t>CUST9990</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45127325</v>
+        <v>47058192</v>
       </c>
       <c r="E29" t="n">
-        <v>11836174</v>
+        <v>13395298</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7763</t>
+          <t>CUST2979</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36104709</v>
+        <v>42942759</v>
       </c>
       <c r="E30" t="n">
-        <v>9714761</v>
+        <v>10928403</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST7434</t>
+          <t>CUST2979</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>31916723</v>
+        <v>52820705</v>
       </c>
       <c r="E31" t="n">
-        <v>8580962</v>
+        <v>16057882</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST7250</t>
+          <t>CUST2745</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>46231981</v>
+        <v>39580531</v>
       </c>
       <c r="E32" t="n">
-        <v>15746506</v>
+        <v>13050835</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-06-28</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST6513</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>41449799</v>
+        <v>43497298</v>
       </c>
       <c r="E33" t="n">
-        <v>13919053</v>
+        <v>13899601</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST4307</t>
+          <t>CUST5354</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>51545409</v>
+        <v>36149086</v>
       </c>
       <c r="E34" t="n">
-        <v>13964339</v>
+        <v>10834442</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2257,12 +2257,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-06-30</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST5448</t>
+          <t>CUST5315</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>40852250</v>
+        <v>54444329</v>
       </c>
       <c r="E35" t="n">
-        <v>13948838</v>
+        <v>16646571</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-06-03</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST7434</t>
+          <t>CUST8182</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>53636002</v>
+        <v>39591986</v>
       </c>
       <c r="E36" t="n">
-        <v>14218499</v>
+        <v>12384753</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST6922</t>
+          <t>CUST1185</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>37814349</v>
+        <v>40912206</v>
       </c>
       <c r="E37" t="n">
-        <v>10418529</v>
+        <v>11503026</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST8213</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>52023335</v>
+        <v>39003874</v>
       </c>
       <c r="E38" t="n">
-        <v>13882590</v>
+        <v>11812197</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST3202</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>56744236</v>
+        <v>46475327</v>
       </c>
       <c r="E39" t="n">
-        <v>14680730</v>
+        <v>14515456</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3928</t>
+          <t>CUST1889</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>36026521</v>
+        <v>50648305</v>
       </c>
       <c r="E40" t="n">
-        <v>10960492</v>
+        <v>17614769</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST1185</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>49483910</v>
+        <v>53824291</v>
       </c>
       <c r="E41" t="n">
-        <v>12879355</v>
+        <v>18255910</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST6339</t>
+          <t>CUST8748</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50422374</v>
+        <v>59774955</v>
       </c>
       <c r="E42" t="n">
-        <v>15877388</v>
+        <v>15589040</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST2830</t>
+          <t>CUST8799</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>43087494</v>
+        <v>45297145</v>
       </c>
       <c r="E43" t="n">
-        <v>14677871</v>
+        <v>11979657</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST1462</t>
+          <t>CUST8182</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>52246642</v>
+        <v>33443547</v>
       </c>
       <c r="E44" t="n">
-        <v>16860226</v>
+        <v>11023730</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST7532</t>
+          <t>CUST1353</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>56570043</v>
+        <v>52586294</v>
       </c>
       <c r="E45" t="n">
-        <v>14412219</v>
+        <v>15077065</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9353</t>
+          <t>CUST4137</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>42986614</v>
+        <v>36668846</v>
       </c>
       <c r="E46" t="n">
-        <v>11684981</v>
+        <v>12185587</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST8996</t>
+          <t>CUST7192</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>57902080</v>
+        <v>35160151</v>
       </c>
       <c r="E47" t="n">
-        <v>15770626</v>
+        <v>10723215</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-06-12</t>
+          <t>2026-06-29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST5164</t>
+          <t>CUST1185</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>53703380</v>
+        <v>46871132</v>
       </c>
       <c r="E48" t="n">
-        <v>16081028</v>
+        <v>12291334</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-06-26</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST1465</t>
+          <t>CUST4511</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>36354097</v>
+        <v>48119551</v>
       </c>
       <c r="E49" t="n">
-        <v>11162242</v>
+        <v>15339692</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3089,24 +3089,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST9744</t>
+          <t>CUST6798</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>59757388</v>
+        <v>45366077</v>
       </c>
       <c r="E50" t="n">
-        <v>18476516</v>
+        <v>15212637</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST7250</t>
+          <t>CUST5033</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>59842344</v>
+        <v>50176998</v>
       </c>
       <c r="E51" t="n">
-        <v>17538451</v>
+        <v>13822625</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3537</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>51828415</v>
+        <v>45148727</v>
       </c>
       <c r="E52" t="n">
-        <v>14533505</v>
+        <v>14108027</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-06-12</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST1478</t>
+          <t>CUST8799</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49957151</v>
+        <v>50886218</v>
       </c>
       <c r="E53" t="n">
-        <v>16246930</v>
+        <v>13872667</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST6339</t>
+          <t>CUST1889</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>48243651</v>
+        <v>45075576</v>
       </c>
       <c r="E54" t="n">
-        <v>12272399</v>
+        <v>14120873</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST5767</t>
+          <t>CUST6513</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37115763</v>
+        <v>44131376</v>
       </c>
       <c r="E55" t="n">
-        <v>12340394</v>
+        <v>13837215</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9999</t>
+          <t>CUST8125</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>46788169</v>
+        <v>40244861</v>
       </c>
       <c r="E56" t="n">
-        <v>14696993</v>
+        <v>11893724</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST7726</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30291268</v>
+        <v>58793596</v>
       </c>
       <c r="E57" t="n">
-        <v>9530473</v>
+        <v>16992317</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST2220</t>
+          <t>CUST8748</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>58520650</v>
+        <v>40351952</v>
       </c>
       <c r="E58" t="n">
-        <v>17044767</v>
+        <v>10141107</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST5608</t>
+          <t>CUST3315</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>58098262</v>
+        <v>49910344</v>
       </c>
       <c r="E59" t="n">
-        <v>18530519</v>
+        <v>16108698</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST6339</t>
+          <t>CUST4511</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>47981393</v>
+        <v>39879766</v>
       </c>
       <c r="E60" t="n">
-        <v>12476785</v>
+        <v>10764582</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-06-30</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST3537</t>
+          <t>CUST6397</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>32591505</v>
+        <v>43841903</v>
       </c>
       <c r="E61" t="n">
-        <v>8894938</v>
+        <v>13312552</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST7722</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>45207101</v>
+        <v>42503092</v>
       </c>
       <c r="E62" t="n">
-        <v>12604836</v>
+        <v>14592439</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-14</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST9588</t>
+          <t>CUST6513</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>52336422</v>
+        <v>58686094</v>
       </c>
       <c r="E63" t="n">
-        <v>15197967</v>
+        <v>16250524</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST7084</t>
+          <t>CUST8057</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>48787955</v>
+        <v>45803568</v>
       </c>
       <c r="E64" t="n">
-        <v>13254195</v>
+        <v>15333362</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3877,12 +3877,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST7650</t>
+          <t>CUST1353</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49344225</v>
+        <v>59631726</v>
       </c>
       <c r="E65" t="n">
-        <v>16198612</v>
+        <v>19691723</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST7905</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>50825791</v>
+        <v>40247149</v>
       </c>
       <c r="E66" t="n">
-        <v>17774768</v>
+        <v>12024092</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST7532</t>
+          <t>CUST6455</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>59717112</v>
+        <v>45350528</v>
       </c>
       <c r="E67" t="n">
-        <v>18342626</v>
+        <v>12194313</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST2220</t>
+          <t>CUST7311</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>40202824</v>
+        <v>46074706</v>
       </c>
       <c r="E68" t="n">
-        <v>12885421</v>
+        <v>12476203</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST7033</t>
+          <t>CUST2954</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>57036742</v>
+        <v>30890104</v>
       </c>
       <c r="E69" t="n">
-        <v>18629381</v>
+        <v>7999400</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST1057</t>
+          <t>CUST9894</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>37997260</v>
+        <v>46257711</v>
       </c>
       <c r="E70" t="n">
-        <v>11751254</v>
+        <v>13910602</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST7722</t>
+          <t>CUST6798</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>49217010</v>
+        <v>47427800</v>
       </c>
       <c r="E71" t="n">
-        <v>14378514</v>
+        <v>13565237</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-06-12</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST9945</t>
+          <t>CUST7561</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>55757715</v>
+        <v>54257533</v>
       </c>
       <c r="E72" t="n">
-        <v>15718691</v>
+        <v>17032250</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST6239</t>
+          <t>CUST9172</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>53185382</v>
+        <v>58116003</v>
       </c>
       <c r="E73" t="n">
-        <v>18264162</v>
+        <v>15443410</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,17 +4358,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST7084</t>
+          <t>CUST6126</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>51299324</v>
+        <v>54325776</v>
       </c>
       <c r="E74" t="n">
-        <v>16352226</v>
+        <v>16604651</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST2830</t>
+          <t>CUST9447</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>52406350</v>
+        <v>48340410</v>
       </c>
       <c r="E75" t="n">
-        <v>14959985</v>
+        <v>14040848</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST1462</t>
+          <t>CUST7561</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>31167556</v>
+        <v>54657426</v>
       </c>
       <c r="E76" t="n">
-        <v>10250211</v>
+        <v>14250993</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4542,29 +4542,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST1376</t>
+          <t>CUST8182</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>32771048</v>
+        <v>45072939</v>
       </c>
       <c r="E77" t="n">
-        <v>10733636</v>
+        <v>14899731</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST9172</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>50409190</v>
+        <v>34789609</v>
       </c>
       <c r="E78" t="n">
-        <v>13152446</v>
+        <v>10991474</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-06-03</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST4137</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>46628778</v>
+        <v>39120433</v>
       </c>
       <c r="E79" t="n">
-        <v>16192660</v>
+        <v>13206142</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST7434</t>
+          <t>CUST5328</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>30890629</v>
+        <v>38173702</v>
       </c>
       <c r="E80" t="n">
-        <v>8025577</v>
+        <v>12846612</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4763,24 +4763,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST5489</t>
+          <t>CUST9447</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>31241376</v>
+        <v>46218288</v>
       </c>
       <c r="E81" t="n">
-        <v>9600612</v>
+        <v>14175496</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6239</t>
+          <t>CUST3202</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>55127426</v>
+        <v>30984999</v>
       </c>
       <c r="E82" t="n">
-        <v>14861886</v>
+        <v>10293712</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-06-30</t>
+          <t>2026-06-28</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST8996</t>
+          <t>CUST2759</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>36641183</v>
+        <v>31257918</v>
       </c>
       <c r="E83" t="n">
-        <v>11364683</v>
+        <v>9821839</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST4307</t>
+          <t>CUST2886</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>58480607</v>
+        <v>53030422</v>
       </c>
       <c r="E84" t="n">
-        <v>18115573</v>
+        <v>17650431</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST7833</t>
+          <t>CUST6513</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>30677410</v>
+        <v>40002987</v>
       </c>
       <c r="E85" t="n">
-        <v>9677254</v>
+        <v>10797669</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST2830</t>
+          <t>CUST2954</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>39830802</v>
+        <v>30140808</v>
       </c>
       <c r="E86" t="n">
-        <v>11359585</v>
+        <v>10230370</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST9588</t>
+          <t>CUST2954</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>43852548</v>
+        <v>37348416</v>
       </c>
       <c r="E87" t="n">
-        <v>14962078</v>
+        <v>12801333</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5119,12 +5119,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST7250</t>
+          <t>CUST7726</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>39622785</v>
+        <v>35288080</v>
       </c>
       <c r="E88" t="n">
-        <v>11845598</v>
+        <v>11736111</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5168,17 +5168,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST5767</t>
+          <t>CUST1353</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>31375983</v>
+        <v>52488055</v>
       </c>
       <c r="E89" t="n">
-        <v>9628252</v>
+        <v>17573162</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST5767</t>
+          <t>CUST5354</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>30781589</v>
+        <v>41509390</v>
       </c>
       <c r="E90" t="n">
-        <v>10751643</v>
+        <v>12289301</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST1889</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>38311167</v>
+        <v>36171089</v>
       </c>
       <c r="E91" t="n">
-        <v>11719919</v>
+        <v>12333075</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5352,25 +5352,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST5164</t>
+          <t>CUST8748</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36622022</v>
+        <v>45741875</v>
       </c>
       <c r="E92" t="n">
-        <v>11839962</v>
+        <v>14377341</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5406,25 +5406,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST1376</t>
+          <t>CUST1703</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>41074707</v>
+        <v>47296087</v>
       </c>
       <c r="E93" t="n">
-        <v>13418619</v>
+        <v>13665518</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,12 +5438,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5460,29 +5460,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST3683</t>
+          <t>CUST8812</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>49649614</v>
+        <v>54422324</v>
       </c>
       <c r="E94" t="n">
-        <v>13471578</v>
+        <v>15916239</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5492,17 +5492,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST7763</t>
+          <t>CUST6455</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>57082172</v>
+        <v>55283623</v>
       </c>
       <c r="E95" t="n">
-        <v>15388717</v>
+        <v>17266055</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5568,25 +5568,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST6339</t>
+          <t>CUST3315</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>51507731</v>
+        <v>59094495</v>
       </c>
       <c r="E96" t="n">
-        <v>17057480</v>
+        <v>15763711</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5600,17 +5600,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5622,25 +5622,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST6339</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>46713491</v>
+        <v>58252938</v>
       </c>
       <c r="E97" t="n">
-        <v>16164062</v>
+        <v>16890571</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5659,12 +5659,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-06-03</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST9353</t>
+          <t>CUST1353</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>52933587</v>
+        <v>41150883</v>
       </c>
       <c r="E98" t="n">
-        <v>13530450</v>
+        <v>12485613</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -5730,25 +5730,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-06-29</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST3928</t>
+          <t>CUST8125</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>56277159</v>
+        <v>37583627</v>
       </c>
       <c r="E99" t="n">
-        <v>18218223</v>
+        <v>11029254</v>
       </c>
       <c r="F99" t="n">
         <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5784,25 +5784,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST6339</t>
+          <t>CUST2954</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>31441013</v>
+        <v>50771213</v>
       </c>
       <c r="E100" t="n">
-        <v>7966115</v>
+        <v>13413424</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -5843,20 +5843,20 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST9945</t>
+          <t>CUST1353</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>47563137</v>
+        <v>34552761</v>
       </c>
       <c r="E101" t="n">
-        <v>12175633</v>
+        <v>9881978</v>
       </c>
       <c r="F101" t="n">
         <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,12 +5870,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -5892,25 +5892,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST2954</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>35890229</v>
+        <v>53488038</v>
       </c>
       <c r="E102" t="n">
-        <v>12528930</v>
+        <v>17171877</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -5924,17 +5924,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5946,25 +5946,25 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST1465</t>
+          <t>CUST7192</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>51567023</v>
+        <v>42423236</v>
       </c>
       <c r="E103" t="n">
-        <v>17397955</v>
+        <v>14315438</v>
       </c>
       <c r="F103" t="n">
         <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -5978,12 +5978,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -6000,25 +6000,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST2886</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>39461761</v>
+        <v>41474339</v>
       </c>
       <c r="E104" t="n">
-        <v>13019138</v>
+        <v>12688093</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6054,29 +6054,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST1864</t>
+          <t>CUST2759</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>51327010</v>
+        <v>49476381</v>
       </c>
       <c r="E105" t="n">
-        <v>17766559</v>
+        <v>15750338</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6086,17 +6086,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-28</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST9872</t>
+          <t>CUST9172</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>57033861</v>
+        <v>59189800</v>
       </c>
       <c r="E106" t="n">
-        <v>16937787</v>
+        <v>16116597</v>
       </c>
       <c r="F106" t="n">
         <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -6140,17 +6140,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST9588</t>
+          <t>CUST3202</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>32770119</v>
+        <v>51905205</v>
       </c>
       <c r="E107" t="n">
-        <v>10260907</v>
+        <v>16517212</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6216,25 +6216,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-28</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST7033</t>
+          <t>CUST1484</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>59582863</v>
+        <v>33974606</v>
       </c>
       <c r="E108" t="n">
-        <v>17404575</v>
+        <v>8554696</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6270,25 +6270,25 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST8996</t>
+          <t>CUST7561</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>43049582</v>
+        <v>59646902</v>
       </c>
       <c r="E109" t="n">
-        <v>14122218</v>
+        <v>17127502</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST2220</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>48160719</v>
+        <v>38704447</v>
       </c>
       <c r="E110" t="n">
-        <v>12192803</v>
+        <v>9872365</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6378,29 +6378,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST3683</t>
+          <t>CUST9338</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>32691956</v>
+        <v>49253526</v>
       </c>
       <c r="E111" t="n">
-        <v>10970234</v>
+        <v>15579233</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6432,29 +6432,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST7577</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>33531018</v>
+        <v>49323647</v>
       </c>
       <c r="E112" t="n">
-        <v>9958642</v>
+        <v>15567507</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST4473</t>
+          <t>CUST8799</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>57393573</v>
+        <v>34244187</v>
       </c>
       <c r="E113" t="n">
-        <v>15696001</v>
+        <v>8691151</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6523,12 +6523,12 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST1462</t>
+          <t>CUST5328</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>43669095</v>
+        <v>44531375</v>
       </c>
       <c r="E114" t="n">
-        <v>14494002</v>
+        <v>13965005</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6572,17 +6572,17 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-06-29</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST7418</t>
+          <t>CUST8057</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>38460791</v>
+        <v>31810199</v>
       </c>
       <c r="E115" t="n">
-        <v>13268220</v>
+        <v>8274707</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6626,17 +6626,17 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6648,29 +6648,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST9744</t>
+          <t>CUST4604</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>50871018</v>
+        <v>37210237</v>
       </c>
       <c r="E116" t="n">
-        <v>15007591</v>
+        <v>9785821</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6680,17 +6680,17 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6702,29 +6702,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST1376</t>
+          <t>CUST6513</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>58029927</v>
+        <v>39926015</v>
       </c>
       <c r="E117" t="n">
-        <v>19493889</v>
+        <v>11620328</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6739,12 +6739,12 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST1376</t>
+          <t>CUST6513</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>55607465</v>
+        <v>43377674</v>
       </c>
       <c r="E118" t="n">
-        <v>17457736</v>
+        <v>12476836</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -6788,17 +6788,17 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6810,29 +6810,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST6020</t>
+          <t>CUST9853</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>40550062</v>
+        <v>39487247</v>
       </c>
       <c r="E119" t="n">
-        <v>10656456</v>
+        <v>10208463</v>
       </c>
       <c r="F119" t="n">
         <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6842,17 +6842,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6864,29 +6864,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST3683</t>
+          <t>CUST1185</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>32697274</v>
+        <v>56471348</v>
       </c>
       <c r="E120" t="n">
-        <v>11112254</v>
+        <v>15941367</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6901,12 +6901,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6918,25 +6918,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST3928</t>
+          <t>CUST1703</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51305342</v>
+        <v>56071212</v>
       </c>
       <c r="E121" t="n">
-        <v>14663591</v>
+        <v>19442373</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.3</v>
+        <v>94.3</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>16328834</v>
+        <v>12414639</v>
       </c>
       <c r="E2" t="n">
-        <v>2381805</v>
+        <v>3234363</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>11255780</v>
+        <v>5203509</v>
       </c>
       <c r="E3" t="n">
-        <v>2595713</v>
+        <v>552943</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6874902</v>
+        <v>7805317</v>
       </c>
       <c r="E4" t="n">
-        <v>699478</v>
+        <v>2185091</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5413809</v>
+        <v>12640000</v>
       </c>
       <c r="E5" t="n">
-        <v>915192</v>
+        <v>1556135</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>8584223</v>
+        <v>11789219</v>
       </c>
       <c r="E6" t="n">
-        <v>2099754</v>
+        <v>1966912</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9252349</v>
+        <v>2893833</v>
       </c>
       <c r="E7" t="n">
-        <v>2528612</v>
+        <v>810670</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7316894</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1812039</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>13256579</v>
+        <v>2135838</v>
       </c>
       <c r="E9" t="n">
-        <v>2338279</v>
+        <v>627032</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.40000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3982806</v>
+        <v>9344704</v>
       </c>
       <c r="E10" t="n">
-        <v>859790</v>
+        <v>1739353</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.3</v>
+        <v>98.2</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>4389087</v>
+        <v>12359750</v>
       </c>
       <c r="E11" t="n">
-        <v>1092052</v>
+        <v>2648351</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.2</v>
+        <v>94.3</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>10147473</v>
+        <v>6512890</v>
       </c>
       <c r="E12" t="n">
-        <v>3010222</v>
+        <v>1643947</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8059618</v>
+        <v>7840308</v>
       </c>
       <c r="E13" t="n">
-        <v>2194860</v>
+        <v>1176026</v>
       </c>
     </row>
     <row r="14">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1230548</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>138946</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94</v>
+        <v>95.8</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>6957399</v>
+        <v>10121172</v>
       </c>
       <c r="E16" t="n">
-        <v>797390</v>
+        <v>1085633</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>11126631</v>
+        <v>8896311</v>
       </c>
       <c r="E17" t="n">
-        <v>3265415</v>
+        <v>2663317</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>95.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>7278907</v>
+        <v>8040303</v>
       </c>
       <c r="E18" t="n">
-        <v>1855301</v>
+        <v>1518890</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.2</v>
+        <v>91.7</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>10533510</v>
+        <v>9661510</v>
       </c>
       <c r="E19" t="n">
-        <v>3121167</v>
+        <v>1571296</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>17470869</v>
+        <v>8269795</v>
       </c>
       <c r="E20" t="n">
-        <v>5167631</v>
+        <v>1664809</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81.5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2797768</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>599693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2662698</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>420698</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>96.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>10763528</v>
+        <v>4784220</v>
       </c>
       <c r="E23" t="n">
-        <v>3120580</v>
+        <v>601144</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>16385234</v>
+        <v>18008798</v>
       </c>
       <c r="E24" t="n">
-        <v>4016952</v>
+        <v>5144854</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.3</v>
+        <v>96.3</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>13466889</v>
+        <v>11640323</v>
       </c>
       <c r="E25" t="n">
-        <v>3835057</v>
+        <v>1540589</v>
       </c>
     </row>
     <row r="26">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>9676189</v>
+        <v>10248491</v>
       </c>
       <c r="E26" t="n">
-        <v>1897388</v>
+        <v>1102988</v>
       </c>
     </row>
     <row r="27">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6674601</v>
+        <v>6638367</v>
       </c>
       <c r="E27" t="n">
-        <v>1794511</v>
+        <v>1840022</v>
       </c>
     </row>
     <row r="28">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2467449</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>324440</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99</v>
+        <v>95.2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>5928085</v>
+        <v>3980576</v>
       </c>
       <c r="E30" t="n">
-        <v>897321</v>
+        <v>559279</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5175932</v>
+        <v>14407085</v>
       </c>
       <c r="E31" t="n">
-        <v>851786</v>
+        <v>3085906</v>
       </c>
     </row>
   </sheetData>
